--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="181">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,424 +49,514 @@
     <t>forced</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>fear</t>
   </si>
   <si>
     <t>warning</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>fear</t>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>anxiety</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>demand</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>businesses</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>masks</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>let</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>trump</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>going</t>
   </si>
   <si>
     <t>food</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>hands</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>businesses</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>video</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>gloves</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>tips</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>masks</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>employees</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>workers</t>
-  </si>
-  <si>
-    <t>going</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>lock</t>
+    <t>qu</t>
   </si>
   <si>
     <t>need</t>
   </si>
   <si>
     <t>pan</t>
+  </si>
+  <si>
+    <t>buying</t>
   </si>
 </sst>
 </file>
@@ -824,7 +914,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q127"/>
+  <dimension ref="A1:Q158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -832,10 +922,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -914,28 +1004,28 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K3">
-        <v>0.8888888888888888</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="N3">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -943,13 +1033,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -961,31 +1051,31 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="K4">
-        <v>0.8545454545454545</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="N4">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -993,13 +1083,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7241379310344828</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1011,31 +1101,31 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K5">
-        <v>0.8346456692913385</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="L5">
         <v>106</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N5">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1043,13 +1133,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7226027397260274</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C6">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1061,19 +1151,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K6">
-        <v>0.8135593220338984</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="M6">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1085,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1093,13 +1183,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7222222222222222</v>
+        <v>0.6746575342465754</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1111,31 +1201,31 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="K7">
-        <v>0.7625</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L7">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="M7">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="N7">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1143,13 +1233,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5600000000000001</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1161,31 +1251,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8">
+        <v>0.8253968253968254</v>
+      </c>
+      <c r="L8">
+        <v>52</v>
+      </c>
+      <c r="M8">
+        <v>52</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>11</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8">
-        <v>0.7531645569620253</v>
-      </c>
-      <c r="L8">
-        <v>119</v>
-      </c>
-      <c r="M8">
-        <v>121</v>
-      </c>
-      <c r="N8">
-        <v>0.98</v>
-      </c>
-      <c r="O8">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P8" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1193,7 +1283,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="C9">
         <v>15</v>
@@ -1211,31 +1301,31 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K9">
-        <v>0.7142857142857143</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L9">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="N9">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1243,13 +1333,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1261,31 +1351,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K10">
-        <v>0.7128712871287128</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L10">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="N10">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1293,13 +1383,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4666666666666667</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1311,31 +1401,31 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K11">
-        <v>0.6986899563318777</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L11">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="N11">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>69</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1343,13 +1433,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4333333333333333</v>
+        <v>0.44</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1361,31 +1451,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K12">
-        <v>0.6555555555555556</v>
+        <v>0.775</v>
       </c>
       <c r="L12">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="M12">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="N12">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1393,13 +1483,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3823529411764706</v>
+        <v>0.3701550387596899</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1411,19 +1501,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>325</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K13">
-        <v>0.6521739130434783</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1435,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1443,13 +1533,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3391472868217054</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C14">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1461,31 +1551,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>341</v>
+        <v>55</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>0.6236842105263158</v>
+        <v>0.7112970711297071</v>
       </c>
       <c r="L14">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="M14">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="N14">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>143</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1493,49 +1583,49 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3018867924528302</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E15">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
+        <v>41</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K15">
-        <v>0.617737003058104</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L15">
-        <v>202</v>
+        <v>74</v>
       </c>
       <c r="M15">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>125</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1543,13 +1633,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1818181818181818</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1561,31 +1651,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K16">
-        <v>0.5555555555555556</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L16">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="M16">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="N16">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>128</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1593,37 +1683,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1621621621621622</v>
+        <v>0.05898123324396783</v>
       </c>
       <c r="C17">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>124</v>
+        <v>351</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K17">
-        <v>0.5555555555555556</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1643,37 +1733,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.09420289855072464</v>
+        <v>0.05158730158730158</v>
       </c>
       <c r="C18">
         <v>13</v>
       </c>
       <c r="D18">
-        <v>215</v>
+        <v>13</v>
       </c>
       <c r="E18">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>125</v>
+        <v>239</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K18">
-        <v>0.5555555555555556</v>
+        <v>0.6527415143603134</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1685,145 +1775,73 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
+      <c r="J19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19">
+        <v>0.648936170212766</v>
+      </c>
+      <c r="L19">
+        <v>61</v>
+      </c>
+      <c r="M19">
+        <v>61</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20">
+        <v>0.6307692307692307</v>
+      </c>
+      <c r="L20">
+        <v>41</v>
+      </c>
+      <c r="M20">
+        <v>41</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>24</v>
       </c>
-      <c r="B19">
-        <v>0.07228915662650602</v>
-      </c>
-      <c r="C19">
-        <v>18</v>
-      </c>
-      <c r="D19">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>0.14</v>
-      </c>
-      <c r="F19">
-        <v>0.86</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>231</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="L19">
-        <v>48</v>
-      </c>
-      <c r="M19">
-        <v>49</v>
-      </c>
-      <c r="N19">
-        <v>0.98</v>
-      </c>
-      <c r="O19">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P19" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.05660377358490566</v>
-      </c>
-      <c r="C20">
-        <v>21</v>
-      </c>
-      <c r="D20">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>0.09</v>
-      </c>
-      <c r="F20">
-        <v>0.91</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>350</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20">
-        <v>0.5263157894736842</v>
-      </c>
-      <c r="L20">
-        <v>30</v>
-      </c>
-      <c r="M20">
-        <v>31</v>
-      </c>
-      <c r="N20">
-        <v>0.97</v>
-      </c>
-      <c r="O20">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P20" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>27</v>
-      </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.02272727272727273</v>
-      </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21">
-        <v>108</v>
-      </c>
-      <c r="E21">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="F21">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>860</v>
-      </c>
       <c r="J21" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>0.4680851063829787</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L21">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="M21">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1835,221 +1853,125 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>25</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.02242424242424242</v>
-      </c>
-      <c r="C22">
-        <v>37</v>
-      </c>
-      <c r="D22">
-        <v>530</v>
-      </c>
-      <c r="E22">
-        <v>0.93</v>
-      </c>
-      <c r="F22">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1613</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K22">
-        <v>0.4477611940298508</v>
+        <v>0.625</v>
       </c>
       <c r="L22">
         <v>30</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N22">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.01965811965811966</v>
-      </c>
-      <c r="C23">
+      <c r="J23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23">
+        <v>0.5857142857142857</v>
+      </c>
+      <c r="L23">
+        <v>41</v>
+      </c>
+      <c r="M23">
+        <v>41</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D23">
-        <v>813</v>
-      </c>
-      <c r="E23">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F23">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>2294</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23">
-        <v>0.4375</v>
-      </c>
-      <c r="L23">
-        <v>14</v>
-      </c>
-      <c r="M23">
-        <v>15</v>
-      </c>
-      <c r="N23">
-        <v>0.93</v>
-      </c>
-      <c r="O23">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q23">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.01290963257199603</v>
-      </c>
-      <c r="C24">
-        <v>13</v>
-      </c>
-      <c r="D24">
-        <v>167</v>
-      </c>
-      <c r="E24">
-        <v>0.92</v>
-      </c>
-      <c r="F24">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>994</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="K24">
-        <v>0.4056603773584906</v>
+        <v>0.5694915254237288</v>
       </c>
       <c r="L24">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="M24">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="N24">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.009135896459840122</v>
-      </c>
-      <c r="C25">
+      <c r="J25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25">
+        <v>0.5581395348837209</v>
+      </c>
+      <c r="L25">
         <v>24</v>
       </c>
-      <c r="D25">
-        <v>598</v>
-      </c>
-      <c r="E25">
-        <v>0.96</v>
-      </c>
-      <c r="F25">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>2603</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K25">
-        <v>0.4042553191489361</v>
-      </c>
-      <c r="L25">
+      <c r="M25">
+        <v>24</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>19</v>
-      </c>
-      <c r="M25">
-        <v>20</v>
-      </c>
-      <c r="N25">
-        <v>0.95</v>
-      </c>
-      <c r="O25">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P25" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K26">
-        <v>0.3846153846153846</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L26">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="M26">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2061,73 +1983,73 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K27">
-        <v>0.3838630806845966</v>
+        <v>0.5</v>
       </c>
       <c r="L27">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="M27">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="N27">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>252</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K28">
-        <v>0.3836477987421384</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L28">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M28">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="N28">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>98</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K29">
-        <v>0.3725490196078431</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2139,99 +2061,99 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K30">
-        <v>0.34375</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L30">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M30">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N30">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>63</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K31">
-        <v>0.3381443298969072</v>
+        <v>0.46875</v>
       </c>
       <c r="L31">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="M31">
-        <v>165</v>
+        <v>46</v>
       </c>
       <c r="N31">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O31">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>321</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K32">
-        <v>0.3354430379746836</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="L32">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="M32">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="N32">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K33">
-        <v>0.325</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L33">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M33">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2243,21 +2165,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K34">
-        <v>0.3217391304347826</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L34">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2269,15 +2191,15 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>78</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K35">
-        <v>0.3191489361702128</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="L35">
         <v>15</v>
@@ -2295,73 +2217,73 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K36">
-        <v>0.3170731707317073</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="N36">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K37">
-        <v>0.3098591549295774</v>
+        <v>0.4276729559748428</v>
       </c>
       <c r="L37">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M37">
         <v>68</v>
       </c>
       <c r="N37">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>147</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K38">
-        <v>0.3050847457627119</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L38">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2373,21 +2295,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K39">
-        <v>0.3048780487804878</v>
+        <v>0.4046511627906977</v>
       </c>
       <c r="L39">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="M39">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2399,47 +2321,47 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>57</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K40">
-        <v>0.3035714285714285</v>
+        <v>0.4043062200956938</v>
       </c>
       <c r="L40">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="M40">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="N40">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>39</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K41">
-        <v>0.3023255813953488</v>
+        <v>0.4</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2451,21 +2373,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K42">
-        <v>0.3015873015873016</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L42">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2477,47 +2399,47 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K43">
-        <v>0.3015873015873016</v>
+        <v>0.392638036809816</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="M43">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="N43">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>44</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K44">
-        <v>0.2948717948717949</v>
+        <v>0.38</v>
       </c>
       <c r="L44">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2529,73 +2451,73 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K45">
-        <v>0.2909535452322738</v>
+        <v>0.375</v>
       </c>
       <c r="L45">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="N45">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>290</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K46">
-        <v>0.2876712328767123</v>
+        <v>0.3739130434782609</v>
       </c>
       <c r="L46">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M46">
         <v>43</v>
       </c>
       <c r="N46">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K47">
-        <v>0.2824427480916031</v>
+        <v>0.3736263736263736</v>
       </c>
       <c r="L47">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M47">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2607,21 +2529,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>94</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K48">
-        <v>0.28</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2633,229 +2555,229 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K49">
-        <v>0.28</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L49">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M49">
+        <v>13</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
         <v>22</v>
-      </c>
-      <c r="N49">
-        <v>0.95</v>
-      </c>
-      <c r="O49">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P49" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q49">
-        <v>54</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K50">
-        <v>0.2738853503184713</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L50">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M50">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N50">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O50">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>114</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K51">
-        <v>0.2727272727272727</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="L51">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M51">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N51">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K52">
-        <v>0.2687224669603524</v>
+        <v>0.359375</v>
       </c>
       <c r="L52">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M52">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="N52">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>166</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K53">
-        <v>0.2672955974842767</v>
+        <v>0.3582089552238806</v>
       </c>
       <c r="L53">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="M53">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="N53">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>233</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K54">
-        <v>0.2668621700879765</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L54">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="M54">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="N54">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>250</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K55">
-        <v>0.2657342657342657</v>
+        <v>0.3484848484848485</v>
       </c>
       <c r="L55">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M55">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>105</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K56">
-        <v>0.2647058823529412</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="L56">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M56">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N56">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K57">
-        <v>0.2631578947368421</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L57">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="M57">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2867,255 +2789,255 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>42</v>
+        <v>324</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K58">
-        <v>0.26</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L58">
+        <v>13</v>
+      </c>
+      <c r="M58">
+        <v>13</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
         <v>26</v>
-      </c>
-      <c r="M58">
-        <v>27</v>
-      </c>
-      <c r="N58">
-        <v>0.96</v>
-      </c>
-      <c r="O58">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P58" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q58">
-        <v>74</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K59">
-        <v>0.2556053811659193</v>
+        <v>0.3211678832116788</v>
       </c>
       <c r="L59">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="M59">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="N59">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>664</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K60">
-        <v>0.2553672316384181</v>
+        <v>0.3188405797101449</v>
       </c>
       <c r="L60">
-        <v>226</v>
+        <v>22</v>
       </c>
       <c r="M60">
-        <v>235</v>
+        <v>22</v>
       </c>
       <c r="N60">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>659</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K61">
-        <v>0.2553191489361702</v>
+        <v>0.3149038461538461</v>
       </c>
       <c r="L61">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="M61">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="N61">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>70</v>
+        <v>285</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K62">
-        <v>0.2549019607843137</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L62">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="M62">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N62">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>228</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K63">
-        <v>0.2535211267605634</v>
+        <v>0.3018867924528302</v>
       </c>
       <c r="L63">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M63">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N63">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="K64">
-        <v>0.2505717085919634</v>
+        <v>0.2993197278911565</v>
       </c>
       <c r="L64">
-        <v>767</v>
+        <v>44</v>
       </c>
       <c r="M64">
-        <v>813</v>
+        <v>44</v>
       </c>
       <c r="N64">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>2294</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K65">
-        <v>0.25</v>
+        <v>0.2959183673469388</v>
       </c>
       <c r="L65">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M65">
+        <v>29</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
         <v>69</v>
-      </c>
-      <c r="N65">
-        <v>0.96</v>
-      </c>
-      <c r="O65">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P65" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q65">
-        <v>198</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K66">
-        <v>0.25</v>
+        <v>0.2954545454545455</v>
       </c>
       <c r="L66">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="M66">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="N66">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>45</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K67">
-        <v>0.2484848484848485</v>
+        <v>0.2937062937062937</v>
       </c>
       <c r="L67">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M67">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3127,73 +3049,73 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>124</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K68">
-        <v>0.2477718360071301</v>
+        <v>0.2925764192139738</v>
       </c>
       <c r="L68">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="M68">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="N68">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O68">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>422</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K69">
-        <v>0.2477064220183486</v>
+        <v>0.2922636103151863</v>
       </c>
       <c r="L69">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="M69">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="N69">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>82</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K70">
-        <v>0.2413793103448276</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="L70">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M70">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3205,21 +3127,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K71">
-        <v>0.2372881355932203</v>
+        <v>0.2893081761006289</v>
       </c>
       <c r="L71">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="M71">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -3231,73 +3153,73 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>45</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K72">
-        <v>0.2371134020618557</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L72">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M72">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N72">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>74</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K73">
-        <v>0.2361111111111111</v>
+        <v>0.2837209302325581</v>
       </c>
       <c r="L73">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="M73">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="N73">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>55</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K74">
-        <v>0.2361111111111111</v>
+        <v>0.2807606263982103</v>
       </c>
       <c r="L74">
-        <v>17</v>
+        <v>251</v>
       </c>
       <c r="M74">
-        <v>17</v>
+        <v>251</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3309,99 +3231,99 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>55</v>
+        <v>643</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K75">
-        <v>0.2348484848484849</v>
+        <v>0.2807017543859649</v>
       </c>
       <c r="L75">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M75">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="N75">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>101</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="K76">
-        <v>0.2340930674264008</v>
+        <v>0.2784810126582278</v>
       </c>
       <c r="L76">
-        <v>493</v>
+        <v>22</v>
       </c>
       <c r="M76">
-        <v>530</v>
+        <v>22</v>
       </c>
       <c r="N76">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>1613</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K77">
-        <v>0.2314814814814815</v>
+        <v>0.2773109243697479</v>
       </c>
       <c r="L77">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M77">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N77">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K78">
-        <v>0.2307692307692308</v>
+        <v>0.2772277227722773</v>
       </c>
       <c r="L78">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M78">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3413,99 +3335,99 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K79">
-        <v>0.2290076335877863</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="L79">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M79">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="N79">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>101</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K80">
-        <v>0.2242990654205607</v>
+        <v>0.2752293577981652</v>
       </c>
       <c r="L80">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M80">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="N80">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>498</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K81">
-        <v>0.224</v>
+        <v>0.270042194092827</v>
       </c>
       <c r="L81">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="M81">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="N81">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>97</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K82">
-        <v>0.21875</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="L82">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M82">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3517,21 +3439,21 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K83">
-        <v>0.2184873949579832</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="L83">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M83">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3543,21 +3465,21 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K84">
-        <v>0.2173913043478261</v>
+        <v>0.2677165354330709</v>
       </c>
       <c r="L84">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M84">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3569,47 +3491,47 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>54</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K85">
-        <v>0.2173913043478261</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="L85">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M85">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="N85">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O85">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>126</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K86">
-        <v>0.2151898734177215</v>
+        <v>0.2663139329805996</v>
       </c>
       <c r="L86">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="M86">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3621,151 +3543,151 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>62</v>
+        <v>416</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K87">
-        <v>0.2103004291845494</v>
+        <v>0.2654867256637168</v>
       </c>
       <c r="L87">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M87">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="N87">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>184</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K88">
-        <v>0.2096774193548387</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L88">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M88">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N88">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O88">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K89">
-        <v>0.2076502732240437</v>
+        <v>0.2630392788151964</v>
       </c>
       <c r="L89">
-        <v>38</v>
+        <v>817</v>
       </c>
       <c r="M89">
-        <v>40</v>
+        <v>818</v>
       </c>
       <c r="N89">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O89">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P89" t="b">
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>145</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K90">
-        <v>0.2016317016317016</v>
+        <v>0.2606060606060606</v>
       </c>
       <c r="L90">
-        <v>173</v>
+        <v>43</v>
       </c>
       <c r="M90">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="N90">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>685</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K91">
-        <v>0.1958762886597938</v>
+        <v>0.2589285714285715</v>
       </c>
       <c r="L91">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M91">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N91">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O91">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K92">
-        <v>0.1940298507462687</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="L92">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M92">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3777,47 +3699,47 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K93">
-        <v>0.1926605504587156</v>
+        <v>0.2577319587628866</v>
       </c>
       <c r="L93">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M93">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N93">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K94">
-        <v>0.1926605504587156</v>
+        <v>0.2574916759156493</v>
       </c>
       <c r="L94">
-        <v>21</v>
+        <v>232</v>
       </c>
       <c r="M94">
-        <v>21</v>
+        <v>232</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3829,21 +3751,21 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>88</v>
+        <v>669</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K95">
-        <v>0.1896551724137931</v>
+        <v>0.2568807339449541</v>
       </c>
       <c r="L95">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M95">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -3855,21 +3777,21 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K96">
-        <v>0.1854838709677419</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="L96">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M96">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3881,99 +3803,99 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>101</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K97">
-        <v>0.1844660194174757</v>
+        <v>0.2537313432835821</v>
       </c>
       <c r="L97">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M97">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N97">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O97">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q97">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="K98">
-        <v>0.180673591438464</v>
+        <v>0.2514018691588785</v>
       </c>
       <c r="L98">
-        <v>574</v>
+        <v>538</v>
       </c>
       <c r="M98">
-        <v>598</v>
+        <v>541</v>
       </c>
       <c r="N98">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O98">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P98" t="b">
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>2603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K99">
-        <v>0.1696428571428572</v>
+        <v>0.248062015503876</v>
       </c>
       <c r="L99">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M99">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N99">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O99">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K100">
-        <v>0.168141592920354</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="L100">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M100">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3985,47 +3907,47 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>94</v>
+        <v>56</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K101">
-        <v>0.15625</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="L101">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="M101">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="N101">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O101">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P101" t="b">
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>108</v>
+        <v>492</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K102">
-        <v>0.1484375</v>
+        <v>0.2397003745318352</v>
       </c>
       <c r="L102">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="M102">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -4037,73 +3959,73 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>109</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K103">
-        <v>0.1479820627802691</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="L103">
         <v>33</v>
       </c>
       <c r="M103">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N103">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O103">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>190</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K104">
-        <v>0.1469534050179211</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L104">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="M104">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="N104">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O104">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>238</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K105">
-        <v>0.1443298969072165</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="L105">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M105">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -4115,47 +4037,47 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>83</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K106">
-        <v>0.1403508771929824</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="L106">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M106">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N106">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O106">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106">
-        <v>147</v>
+        <v>55</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K107">
-        <v>0.1386861313868613</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="L107">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M107">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -4167,73 +4089,73 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>118</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K108">
-        <v>0.1382978723404255</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L108">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M108">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N108">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O108">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="K109">
-        <v>0.1341463414634146</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="L109">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="M109">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="N109">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O109">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q109">
-        <v>994</v>
+        <v>51</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K110">
-        <v>0.1339869281045752</v>
+        <v>0.2241379310344828</v>
       </c>
       <c r="L110">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M110">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -4245,73 +4167,73 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>265</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K111">
-        <v>0.1338582677165354</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="L111">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M111">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N111">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O111">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q111">
-        <v>110</v>
+        <v>72</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K112">
-        <v>0.1333333333333333</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="L112">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="M112">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="N112">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O112">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q112">
-        <v>117</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K113">
-        <v>0.1304347826086956</v>
+        <v>0.2159090909090909</v>
       </c>
       <c r="L113">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M113">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -4323,333 +4245,333 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K114">
-        <v>0.1288888888888889</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="L114">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M114">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N114">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O114">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <v>196</v>
+        <v>78</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K115">
-        <v>0.1256983240223464</v>
+        <v>0.2117647058823529</v>
       </c>
       <c r="L115">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="M115">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="N115">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O115">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q115">
-        <v>313</v>
+        <v>67</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K116">
-        <v>0.125</v>
+        <v>0.2090069284064665</v>
       </c>
       <c r="L116">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="M116">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="N116">
-        <v>0.89</v>
+        <v>0.99</v>
       </c>
       <c r="O116">
-        <v>0.11</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P116" t="b">
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>119</v>
+        <v>685</v>
       </c>
     </row>
     <row r="117" spans="10:17">
       <c r="J117" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K117">
-        <v>0.1203703703703704</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="L117">
         <v>13</v>
       </c>
       <c r="M117">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N117">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O117">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q117">
-        <v>95</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="10:17">
       <c r="J118" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K118">
-        <v>0.1158536585365854</v>
+        <v>0.201219512195122</v>
       </c>
       <c r="L118">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M118">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N118">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O118">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q118">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="10:17">
       <c r="J119" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K119">
-        <v>0.1103678929765886</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="L119">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M119">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="N119">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O119">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q119">
-        <v>266</v>
+        <v>54</v>
       </c>
     </row>
     <row r="120" spans="10:17">
       <c r="J120" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K120">
-        <v>0.1091703056768559</v>
+        <v>0.1926605504587156</v>
       </c>
       <c r="L120">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M120">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N120">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O120">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q120">
-        <v>204</v>
+        <v>88</v>
       </c>
     </row>
     <row r="121" spans="10:17">
       <c r="J121" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K121">
-        <v>0.1048387096774194</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="L121">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M121">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N121">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O121">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q121">
-        <v>111</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122" spans="10:17">
       <c r="J122" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K122">
-        <v>0.0959409594095941</v>
+        <v>0.1910112359550562</v>
       </c>
       <c r="L122">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="M122">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="N122">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O122">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q122">
-        <v>490</v>
+        <v>72</v>
       </c>
     </row>
     <row r="123" spans="10:17">
       <c r="J123" s="1" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="K123">
-        <v>0.09282700421940929</v>
+        <v>0.1900593935604876</v>
       </c>
       <c r="L123">
-        <v>88</v>
+        <v>608</v>
       </c>
       <c r="M123">
-        <v>108</v>
+        <v>610</v>
       </c>
       <c r="N123">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="O123">
-        <v>0.1899999999999999</v>
+        <v>0</v>
       </c>
       <c r="P123" t="b">
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>860</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="124" spans="10:17">
       <c r="J124" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K124">
-        <v>0.08383233532934131</v>
+        <v>0.1897810218978102</v>
       </c>
       <c r="L124">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M124">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N124">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O124">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q124">
-        <v>153</v>
+        <v>111</v>
       </c>
     </row>
     <row r="125" spans="10:17">
       <c r="J125" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K125">
-        <v>0.07103825136612021</v>
+        <v>0.1894736842105263</v>
       </c>
       <c r="L125">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M125">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N125">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="O125">
-        <v>0.1899999999999999</v>
+        <v>0</v>
       </c>
       <c r="P125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q125">
-        <v>170</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126" spans="10:17">
       <c r="J126" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K126">
-        <v>0.06228373702422145</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L126">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M126">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N126">
         <v>1</v>
@@ -4661,33 +4583,839 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>271</v>
+        <v>66</v>
       </c>
     </row>
     <row r="127" spans="10:17">
       <c r="J127" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K127">
+        <v>0.1779359430604982</v>
+      </c>
+      <c r="L127">
+        <v>50</v>
+      </c>
+      <c r="M127">
+        <v>50</v>
+      </c>
+      <c r="N127">
+        <v>1</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="128" spans="10:17">
+      <c r="J128" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K127">
-        <v>0.0367170626349892</v>
-      </c>
-      <c r="L127">
+      <c r="K128">
+        <v>0.1769911504424779</v>
+      </c>
+      <c r="L128">
+        <v>20</v>
+      </c>
+      <c r="M128">
+        <v>20</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="129" spans="10:17">
+      <c r="J129" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K129">
+        <v>0.1756756756756757</v>
+      </c>
+      <c r="L129">
+        <v>13</v>
+      </c>
+      <c r="M129">
+        <v>13</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="130" spans="10:17">
+      <c r="J130" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K130">
+        <v>0.1752577319587629</v>
+      </c>
+      <c r="L130">
         <v>17</v>
       </c>
-      <c r="M127">
+      <c r="M130">
+        <v>17</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="10:17">
+      <c r="J131" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K131">
+        <v>0.1743119266055046</v>
+      </c>
+      <c r="L131">
+        <v>19</v>
+      </c>
+      <c r="M131">
+        <v>19</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="132" spans="10:17">
+      <c r="J132" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K132">
+        <v>0.1710526315789474</v>
+      </c>
+      <c r="L132">
+        <v>13</v>
+      </c>
+      <c r="M132">
+        <v>13</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="133" spans="10:17">
+      <c r="J133" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K133">
+        <v>0.1707317073170732</v>
+      </c>
+      <c r="L133">
+        <v>14</v>
+      </c>
+      <c r="M133">
+        <v>14</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="134" spans="10:17">
+      <c r="J134" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K134">
+        <v>0.1688888888888889</v>
+      </c>
+      <c r="L134">
+        <v>38</v>
+      </c>
+      <c r="M134">
+        <v>38</v>
+      </c>
+      <c r="N134">
+        <v>1</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="135" spans="10:17">
+      <c r="J135" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K135">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="L135">
+        <v>23</v>
+      </c>
+      <c r="M135">
+        <v>23</v>
+      </c>
+      <c r="N135">
+        <v>1</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="136" spans="10:17">
+      <c r="J136" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K136">
+        <v>0.1640625</v>
+      </c>
+      <c r="L136">
+        <v>21</v>
+      </c>
+      <c r="M136">
+        <v>21</v>
+      </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="137" spans="10:17">
+      <c r="J137" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K137">
+        <v>0.1629955947136564</v>
+      </c>
+      <c r="L137">
+        <v>37</v>
+      </c>
+      <c r="M137">
+        <v>37</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="138" spans="10:17">
+      <c r="J138" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K138">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="L138">
+        <v>28</v>
+      </c>
+      <c r="M138">
+        <v>28</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="139" spans="10:17">
+      <c r="J139" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K139">
+        <v>0.1601307189542484</v>
+      </c>
+      <c r="L139">
+        <v>49</v>
+      </c>
+      <c r="M139">
+        <v>49</v>
+      </c>
+      <c r="N139">
+        <v>1</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="140" spans="10:17">
+      <c r="J140" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K140">
+        <v>0.15625</v>
+      </c>
+      <c r="L140">
+        <v>20</v>
+      </c>
+      <c r="M140">
+        <v>20</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q140">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="141" spans="10:17">
+      <c r="J141" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K141">
+        <v>0.1491379310344828</v>
+      </c>
+      <c r="L141">
+        <v>173</v>
+      </c>
+      <c r="M141">
+        <v>174</v>
+      </c>
+      <c r="N141">
+        <v>0.99</v>
+      </c>
+      <c r="O141">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P141" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q141">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="142" spans="10:17">
+      <c r="J142" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K142">
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="L142">
+        <v>16</v>
+      </c>
+      <c r="M142">
+        <v>16</v>
+      </c>
+      <c r="N142">
+        <v>1</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="P142" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="143" spans="10:17">
+      <c r="J143" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K143">
+        <v>0.1451612903225807</v>
+      </c>
+      <c r="L143">
         <v>18</v>
       </c>
-      <c r="N127">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O127">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P127" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q127">
-        <v>446</v>
+      <c r="M143">
+        <v>18</v>
+      </c>
+      <c r="N143">
+        <v>1</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="144" spans="10:17">
+      <c r="J144" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K144">
+        <v>0.1433333333333333</v>
+      </c>
+      <c r="L144">
+        <v>43</v>
+      </c>
+      <c r="M144">
+        <v>43</v>
+      </c>
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q144">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="145" spans="10:17">
+      <c r="J145" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K145">
+        <v>0.1361111111111111</v>
+      </c>
+      <c r="L145">
+        <v>49</v>
+      </c>
+      <c r="M145">
+        <v>49</v>
+      </c>
+      <c r="N145">
+        <v>1</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="146" spans="10:17">
+      <c r="J146" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K146">
+        <v>0.1360294117647059</v>
+      </c>
+      <c r="L146">
+        <v>74</v>
+      </c>
+      <c r="M146">
+        <v>75</v>
+      </c>
+      <c r="N146">
+        <v>0.99</v>
+      </c>
+      <c r="O146">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P146" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q146">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="147" spans="10:17">
+      <c r="J147" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K147">
+        <v>0.1325301204819277</v>
+      </c>
+      <c r="L147">
+        <v>22</v>
+      </c>
+      <c r="M147">
+        <v>22</v>
+      </c>
+      <c r="N147">
+        <v>1</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q147">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="148" spans="10:17">
+      <c r="J148" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K148">
+        <v>0.13</v>
+      </c>
+      <c r="L148">
+        <v>13</v>
+      </c>
+      <c r="M148">
+        <v>13</v>
+      </c>
+      <c r="N148">
+        <v>1</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+      <c r="P148" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="149" spans="10:17">
+      <c r="J149" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K149">
+        <v>0.1235294117647059</v>
+      </c>
+      <c r="L149">
+        <v>21</v>
+      </c>
+      <c r="M149">
+        <v>22</v>
+      </c>
+      <c r="N149">
+        <v>0.95</v>
+      </c>
+      <c r="O149">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P149" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q149">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="10:17">
+      <c r="J150" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K150">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="L150">
+        <v>16</v>
+      </c>
+      <c r="M150">
+        <v>18</v>
+      </c>
+      <c r="N150">
+        <v>0.89</v>
+      </c>
+      <c r="O150">
+        <v>0.11</v>
+      </c>
+      <c r="P150" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q150">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="151" spans="10:17">
+      <c r="J151" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K151">
+        <v>0.1140350877192982</v>
+      </c>
+      <c r="L151">
+        <v>13</v>
+      </c>
+      <c r="M151">
+        <v>14</v>
+      </c>
+      <c r="N151">
+        <v>0.93</v>
+      </c>
+      <c r="O151">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P151" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q151">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="152" spans="10:17">
+      <c r="J152" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K152">
+        <v>0.112</v>
+      </c>
+      <c r="L152">
+        <v>14</v>
+      </c>
+      <c r="M152">
+        <v>14</v>
+      </c>
+      <c r="N152">
+        <v>1</v>
+      </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
+      <c r="P152" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="153" spans="10:17">
+      <c r="J153" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K153">
+        <v>0.108695652173913</v>
+      </c>
+      <c r="L153">
+        <v>25</v>
+      </c>
+      <c r="M153">
+        <v>25</v>
+      </c>
+      <c r="N153">
+        <v>1</v>
+      </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
+      <c r="P153" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="154" spans="10:17">
+      <c r="J154" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K154">
+        <v>0.1067357512953368</v>
+      </c>
+      <c r="L154">
+        <v>103</v>
+      </c>
+      <c r="M154">
+        <v>106</v>
+      </c>
+      <c r="N154">
+        <v>0.97</v>
+      </c>
+      <c r="O154">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P154" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q154">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="155" spans="10:17">
+      <c r="J155" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K155">
+        <v>0.09395973154362416</v>
+      </c>
+      <c r="L155">
+        <v>14</v>
+      </c>
+      <c r="M155">
+        <v>15</v>
+      </c>
+      <c r="N155">
+        <v>0.93</v>
+      </c>
+      <c r="O155">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P155" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q155">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="156" spans="10:17">
+      <c r="J156" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K156">
+        <v>0.08996539792387544</v>
+      </c>
+      <c r="L156">
+        <v>26</v>
+      </c>
+      <c r="M156">
+        <v>26</v>
+      </c>
+      <c r="N156">
+        <v>1</v>
+      </c>
+      <c r="O156">
+        <v>0</v>
+      </c>
+      <c r="P156" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q156">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="157" spans="10:17">
+      <c r="J157" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K157">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="L157">
+        <v>22</v>
+      </c>
+      <c r="M157">
+        <v>24</v>
+      </c>
+      <c r="N157">
+        <v>0.92</v>
+      </c>
+      <c r="O157">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P157" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q157">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="158" spans="10:17">
+      <c r="J158" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K158">
+        <v>0.04452054794520548</v>
+      </c>
+      <c r="L158">
+        <v>13</v>
+      </c>
+      <c r="M158">
+        <v>14</v>
+      </c>
+      <c r="N158">
+        <v>0.93</v>
+      </c>
+      <c r="O158">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P158" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q158">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
